--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H2">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J2">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>2.53867690585</v>
+        <v>9.596910092585333</v>
       </c>
       <c r="R2">
-        <v>22.84809215265</v>
+        <v>86.37219083326799</v>
       </c>
       <c r="S2">
-        <v>0.0004323959229087856</v>
+        <v>0.00100155294629481</v>
       </c>
       <c r="T2">
-        <v>0.0004323959229087854</v>
+        <v>0.00100155294629481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H3">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J3">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>2.129269073491111</v>
+        <v>6.520044697597334</v>
       </c>
       <c r="R3">
-        <v>19.16342166142</v>
+        <v>58.68040227837601</v>
       </c>
       <c r="S3">
-        <v>0.0003626642145882124</v>
+        <v>0.0006804450509438174</v>
       </c>
       <c r="T3">
-        <v>0.0003626642145882124</v>
+        <v>0.0006804450509438174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H4">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J4">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>13.38566734557</v>
+        <v>21.373669568926</v>
       </c>
       <c r="R4">
-        <v>120.47100611013</v>
+        <v>192.363026120334</v>
       </c>
       <c r="S4">
-        <v>0.002279891534168987</v>
+        <v>0.002230599382860605</v>
       </c>
       <c r="T4">
-        <v>0.002279891534168986</v>
+        <v>0.002230599382860605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.664768333333334</v>
+        <v>20.408218</v>
       </c>
       <c r="H5">
-        <v>19.994305</v>
+        <v>61.224654</v>
       </c>
       <c r="I5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="J5">
-        <v>0.06516174319532789</v>
+        <v>0.1108535210972707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>364.5231035924772</v>
+        <v>1024.711108812041</v>
       </c>
       <c r="R5">
-        <v>3280.707932332295</v>
+        <v>9222.399979308368</v>
       </c>
       <c r="S5">
-        <v>0.0620867915236619</v>
+        <v>0.1069409237171715</v>
       </c>
       <c r="T5">
-        <v>0.0620867915236619</v>
+        <v>0.1069409237171715</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>141.767772</v>
       </c>
       <c r="I6">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J6">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>18.00025401084</v>
+        <v>22.22197224520266</v>
       </c>
       <c r="R6">
-        <v>162.00228609756</v>
+        <v>199.997750206824</v>
       </c>
       <c r="S6">
-        <v>0.003065863335217817</v>
+        <v>0.002319129965785528</v>
       </c>
       <c r="T6">
-        <v>0.003065863335217816</v>
+        <v>0.002319129965785529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>141.767772</v>
       </c>
       <c r="I7">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J7">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>15.09738560741866</v>
+        <v>15.09738560741867</v>
       </c>
       <c r="R7">
         <v>135.876470466768</v>
       </c>
       <c r="S7">
-        <v>0.002571437101029556</v>
+        <v>0.00157559369532299</v>
       </c>
       <c r="T7">
-        <v>0.002571437101029556</v>
+        <v>0.00157559369532299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>141.767772</v>
       </c>
       <c r="I8">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J8">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>94.90983739192798</v>
+        <v>49.49145999666799</v>
       </c>
       <c r="R8">
-        <v>854.1885365273517</v>
+        <v>445.4231399700119</v>
       </c>
       <c r="S8">
-        <v>0.01616536024637011</v>
+        <v>0.005165028858027076</v>
       </c>
       <c r="T8">
-        <v>0.0161653602463701</v>
+        <v>0.005165028858027078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>141.767772</v>
       </c>
       <c r="I9">
-        <v>0.4620233187619071</v>
+        <v>0.2566851044076959</v>
       </c>
       <c r="J9">
-        <v>0.4620233187619071</v>
+        <v>0.256685104407696</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>2584.617381740985</v>
+        <v>2372.753479994065</v>
       </c>
       <c r="R9">
-        <v>23261.55643566887</v>
+        <v>21354.78131994659</v>
       </c>
       <c r="S9">
-        <v>0.4402206580792896</v>
+        <v>0.2476253518885603</v>
       </c>
       <c r="T9">
-        <v>0.4402206580792896</v>
+        <v>0.2476253518885604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H10">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J10">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>10.42639485515</v>
+        <v>40.11549883229533</v>
       </c>
       <c r="R10">
-        <v>93.83755369635</v>
+        <v>361.039489490658</v>
       </c>
       <c r="S10">
-        <v>0.001775858367646243</v>
+        <v>0.004186534588733216</v>
       </c>
       <c r="T10">
-        <v>0.001775858367646243</v>
+        <v>0.004186534588733217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H11">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J11">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>8.744949017308889</v>
+        <v>27.25406854181733</v>
       </c>
       <c r="R11">
-        <v>78.70454115577999</v>
+        <v>245.286616876356</v>
       </c>
       <c r="S11">
-        <v>0.001489468901070538</v>
+        <v>0.002844289712338485</v>
       </c>
       <c r="T11">
-        <v>0.001489468901070538</v>
+        <v>0.002844289712338486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H12">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J12">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>54.97519311063</v>
+        <v>89.34286227153099</v>
       </c>
       <c r="R12">
-        <v>494.77673799567</v>
+        <v>804.085760443779</v>
       </c>
       <c r="S12">
-        <v>0.009363558358837528</v>
+        <v>0.009324001795911127</v>
       </c>
       <c r="T12">
-        <v>0.009363558358837527</v>
+        <v>0.009324001795911129</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.37233166666667</v>
+        <v>85.307233</v>
       </c>
       <c r="H13">
-        <v>82.116995</v>
+        <v>255.921699</v>
       </c>
       <c r="I13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="J13">
-        <v>0.2676205319545752</v>
+        <v>0.4633725077375833</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>1497.103393945823</v>
+        <v>4283.336708629686</v>
       </c>
       <c r="R13">
-        <v>13473.93054551241</v>
+        <v>38550.03037766717</v>
       </c>
       <c r="S13">
-        <v>0.2549916463270209</v>
+        <v>0.4470176816406004</v>
       </c>
       <c r="T13">
-        <v>0.2549916463270209</v>
+        <v>0.4470176816406005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H14">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J14">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>7.994296567300001</v>
+        <v>14.63851247904422</v>
       </c>
       <c r="R14">
-        <v>71.94866910570001</v>
+        <v>131.746612311398</v>
       </c>
       <c r="S14">
-        <v>0.001361615270639115</v>
+        <v>0.001527704767609264</v>
       </c>
       <c r="T14">
-        <v>0.001361615270639115</v>
+        <v>0.001527704767609264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H15">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J15">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>6.705070820884444</v>
+        <v>9.945258916559554</v>
       </c>
       <c r="R15">
-        <v>60.34563738796</v>
+        <v>89.507330249036</v>
       </c>
       <c r="S15">
-        <v>0.001142030038987719</v>
+        <v>0.001037907334074192</v>
       </c>
       <c r="T15">
-        <v>0.001142030038987719</v>
+        <v>0.001037907334074192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H16">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J16">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>42.15148224066</v>
+        <v>32.60202770362766</v>
       </c>
       <c r="R16">
-        <v>379.36334016594</v>
+        <v>293.4182493326489</v>
       </c>
       <c r="S16">
-        <v>0.007179381127005205</v>
+        <v>0.003402413546312272</v>
       </c>
       <c r="T16">
-        <v>0.007179381127005204</v>
+        <v>0.003402413546312272</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.98736333333333</v>
+        <v>31.12938966666666</v>
       </c>
       <c r="H17">
-        <v>62.96209</v>
+        <v>93.38816899999999</v>
       </c>
       <c r="I17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="J17">
-        <v>0.2051944060881897</v>
+        <v>0.16908886675745</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>1147.883682652079</v>
+        <v>1563.028746653534</v>
       </c>
       <c r="R17">
-        <v>10330.95314386871</v>
+        <v>14067.2587198818</v>
       </c>
       <c r="S17">
-        <v>0.1955113796515577</v>
+        <v>0.1631208411094543</v>
       </c>
       <c r="T17">
-        <v>0.1955113796515577</v>
+        <v>0.1631208411094543</v>
       </c>
     </row>
   </sheetData>
